--- a/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,3</t>
+          <t>13,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,59</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,66</t>
+          <t>16,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,3</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>14,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -3,52</t>
+          <t>3,49; 13,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -1,09</t>
+          <t>2,27; 11,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; -6,38</t>
+          <t>6,22; 16,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -8,09</t>
+          <t>8,94; 18,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,37; -6,65</t>
+          <t>6,73; 16,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -12,74</t>
+          <t>12,51; 20,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -7,73</t>
+          <t>8,0; 14,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -6,17</t>
+          <t>6,05; 13,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -11,81</t>
+          <t>11,69; 18,06</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,21%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>114,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,47%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,47%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>119,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,89%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>77,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>121,32%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -4,01</t>
+          <t>30,96; 175,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -1,22</t>
+          <t>18,98; 153,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,39; -7,21</t>
+          <t>53,26; 221,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -9,69</t>
+          <t>54,02; 151,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -8,12</t>
+          <t>43,38; 145,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,18; -15,23</t>
+          <t>74,79; 178,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -8,71</t>
+          <t>59,43; 136,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; -7,11</t>
+          <t>45,07; 119,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -13,62</t>
+          <t>82,4; 165,51</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>3,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 1,29</t>
+          <t>-1,09; 9,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 2,24</t>
+          <t>-2,14; 6,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -1,2</t>
+          <t>1,59; 9,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 5,07</t>
+          <t>-5,5; 16,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 6,09</t>
+          <t>-5,38; 12,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 11,02</t>
+          <t>-12,1; 7,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,49</t>
+          <t>-0,7; 10,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 1,33</t>
+          <t>-1,01; 8,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 1,92</t>
+          <t>-2,23; 7,5</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>145,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>222,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>75,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,22%</t>
+          <t>54,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>70,84%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 1,21</t>
+          <t>-43,91; 1561,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 2,34</t>
+          <t>-51,05; 731,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -1,46</t>
+          <t>10,88; 1052,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 5,74</t>
+          <t>-50,75; 416,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 7,16</t>
+          <t>-44,72; 361,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 13,61</t>
+          <t>-66,87; 178,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 0,38</t>
+          <t>-18,38; 338,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 1,43</t>
+          <t>-14,8; 362,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 2,13</t>
+          <t>-24,04; 266,01</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 7,44</t>
+          <t>-7,87; 11,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 5,48</t>
+          <t>-6,54; 15,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 10,34</t>
+          <t>-9,19; 7,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 15,8</t>
+          <t>-16,62; 25,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 25,44</t>
+          <t>-25,96; 4,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 22,44</t>
+          <t>-22,86; 5,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 8,77</t>
+          <t>-9,05; 12,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 10,39</t>
+          <t>-9,73; 7,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 10,03</t>
+          <t>-9,92; 5,48</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>114,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>58,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>-67,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>-41,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-10,71%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 8,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 11,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 19,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 35,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 31,08</t>
+          <t>-86,32; 142,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 10,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 12,1</t>
+          <t>-86,63; 429,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 11,7</t>
+          <t>-71,01; 240,16</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-12,13</t>
+          <t>12,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,15</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>3,11; 11,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -0,94</t>
+          <t>0,61; 7,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,27; -2,15</t>
+          <t>2,13; 8,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -8,08</t>
+          <t>7,68; 16,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,89; -4,09</t>
+          <t>4,29; 12,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 0,03</t>
+          <t>0,74; 11,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -6,96</t>
+          <t>7,0; 12,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -3,38</t>
+          <t>3,68; 9,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -2,43</t>
+          <t>2,77; 9,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,31%</t>
+          <t>50,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,76%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>61,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,19%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>58,61%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>31,88; 169,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -1,03</t>
+          <t>5,19; 116,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,9; -2,4</t>
+          <t>21,47; 133,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -9,63</t>
+          <t>47,78; 141,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -4,98</t>
+          <t>27,6; 107,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 0,15</t>
+          <t>7,03; 98,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -7,89</t>
+          <t>57,25; 130,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -3,85</t>
+          <t>28,43; 91,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -2,78</t>
+          <t>23,7; 94,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 13,73</t>
+          <t>2,97; 13,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,16</t>
+          <t>1,52; 10,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 16,16</t>
+          <t>6,1; 15,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 18,14</t>
+          <t>8,6; 17,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 16,92</t>
+          <t>6,45; 16,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 20,94</t>
+          <t>12,39; 20,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,0; 14,74</t>
+          <t>7,99; 15,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,23</t>
+          <t>6,02; 13,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 18,06</t>
+          <t>11,65; 18,1</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,96; 175,61</t>
+          <t>24,07; 166,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,98; 153,75</t>
+          <t>11,16; 141,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,26; 221,45</t>
+          <t>48,85; 213,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,02; 151,46</t>
+          <t>51,06; 146,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,38; 145,86</t>
+          <t>38,83; 137,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,79; 178,0</t>
+          <t>75,16; 175,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,43; 136,41</t>
+          <t>55,07; 138,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,07; 119,83</t>
+          <t>42,16; 121,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,4; 165,51</t>
+          <t>83,14; 171,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 9,52</t>
+          <t>-0,57; 10,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 6,76</t>
+          <t>-1,99; 6,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,63</t>
+          <t>1,48; 9,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 16,7</t>
+          <t>-4,44; 17,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 12,68</t>
+          <t>-5,19; 12,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 7,23</t>
+          <t>-10,91; 7,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,55</t>
+          <t>-0,3; 10,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,98</t>
+          <t>-1,03; 8,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 7,5</t>
+          <t>-1,65; 7,82</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 1561,07</t>
+          <t>-48,24; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 731,59</t>
+          <t>-42,88; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 1052,78</t>
+          <t>14,96; 1053,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 416,53</t>
+          <t>-36,57; 442,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 361,41</t>
+          <t>-39,51; 320,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,87; 178,04</t>
+          <t>-62,78; 158,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 338,94</t>
+          <t>-9,93; 396,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 362,53</t>
+          <t>-20,19; 306,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 266,01</t>
+          <t>-18,14; 269,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 11,29</t>
+          <t>-7,33; 12,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 15,85</t>
+          <t>-5,7; 16,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 7,73</t>
+          <t>-11,56; 7,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 25,09</t>
+          <t>-15,91; 25,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 4,8</t>
+          <t>-26,0; 4,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 5,15</t>
+          <t>-22,26; 5,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 12,73</t>
+          <t>-7,15; 13,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 7,99</t>
+          <t>-10,85; 8,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 5,48</t>
+          <t>-10,54; 5,0</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,32; 142,19</t>
+          <t>-85,14; 160,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>-77,77; 827,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-86,63; 429,79</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 240,16</t>
+          <t>-72,05; 246,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 11,14</t>
+          <t>3,16; 11,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 7,31</t>
+          <t>0,59; 7,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 8,45</t>
+          <t>2,17; 8,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,68; 16,52</t>
+          <t>7,6; 16,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,29; 12,23</t>
+          <t>4,02; 12,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 11,48</t>
+          <t>0,29; 11,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 12,9</t>
+          <t>6,83; 12,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,15</t>
+          <t>3,57; 9,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,11</t>
+          <t>2,65; 8,9</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,88; 169,6</t>
+          <t>31,49; 179,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,19; 116,23</t>
+          <t>6,53; 115,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,47; 133,53</t>
+          <t>20,71; 125,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,78; 141,68</t>
+          <t>46,67; 140,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,6; 107,13</t>
+          <t>25,59; 106,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,03; 98,4</t>
+          <t>4,38; 98,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,25; 130,95</t>
+          <t>54,8; 127,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,43; 91,87</t>
+          <t>28,31; 95,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,7; 94,59</t>
+          <t>21,72; 89,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 13,23</t>
+          <t>3,52; 13,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 10,86</t>
+          <t>1,09; 10,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 15,9</t>
+          <t>6,38; 15,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 17,66</t>
+          <t>8,09; 18,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,22</t>
+          <t>6,65; 16,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 20,49</t>
+          <t>12,74; 21,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 15,03</t>
+          <t>7,73; 14,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 13,21</t>
+          <t>6,17; 12,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 18,1</t>
+          <t>11,81; 18,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,07; 166,56</t>
+          <t>27,81; 176,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,16; 141,3</t>
+          <t>8,06; 141,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,85; 213,27</t>
+          <t>46,8; 202,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,06; 146,83</t>
+          <t>47,57; 148,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,83; 137,47</t>
+          <t>39,52; 137,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,16; 175,41</t>
+          <t>78,97; 187,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,07; 138,92</t>
+          <t>55,01; 133,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,16; 121,38</t>
+          <t>43,28; 117,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,14; 171,07</t>
+          <t>83,44; 170,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 10,82</t>
+          <t>-1,29; 9,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,72</t>
+          <t>-2,24; 6,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,8</t>
+          <t>1,2; 9,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 17,92</t>
+          <t>-5,07; 17,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 12,55</t>
+          <t>-6,09; 12,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 7,52</t>
+          <t>-11,02; 7,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 10,48</t>
+          <t>-0,49; 11,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 8,88</t>
+          <t>-1,33; 8,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 7,82</t>
+          <t>-1,92; 7,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,24; —</t>
+          <t>-52,64; 1136,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,88; —</t>
+          <t>-44,52; 792,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 1053,0</t>
+          <t>7,4; 1094,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,57; 442,43</t>
+          <t>-40,99; 467,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 320,03</t>
+          <t>-42,87; 415,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 158,13</t>
+          <t>-64,58; 176,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 396,46</t>
+          <t>-8,84; 423,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 306,74</t>
+          <t>-20,7; 351,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 269,79</t>
+          <t>-19,68; 298,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 12,84</t>
+          <t>-7,44; 11,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 16,25</t>
+          <t>-5,48; 16,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 7,41</t>
+          <t>-10,34; 7,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 25,37</t>
+          <t>-15,8; 24,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 4,62</t>
+          <t>-25,44; 4,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 5,44</t>
+          <t>-22,44; 6,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 13,82</t>
+          <t>-8,77; 13,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 8,34</t>
+          <t>-10,39; 7,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 5,0</t>
+          <t>-10,03; 5,07</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,14; 160,32</t>
+          <t>-82,83; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-77,77; 827,0</t>
+          <t>-100,0; 476,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,9; 430,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,05; 246,79</t>
+          <t>-69,65; 284,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,53</t>
+          <t>3,09; 10,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,35</t>
+          <t>0,94; 7,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,21</t>
+          <t>2,15; 8,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 16,2</t>
+          <t>8,08; 16,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,46</t>
+          <t>4,09; 12,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 11,52</t>
+          <t>-0,03; 11,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,67</t>
+          <t>6,96; 13,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,51</t>
+          <t>3,38; 9,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,9</t>
+          <t>2,43; 9,09</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,49; 179,99</t>
+          <t>30,64; 168,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,53; 115,08</t>
+          <t>8,32; 118,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,71; 125,18</t>
+          <t>21,26; 138,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,67; 140,25</t>
+          <t>50,95; 143,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,59; 106,53</t>
+          <t>25,75; 112,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,38; 98,04</t>
+          <t>1,21; 94,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,8; 127,83</t>
+          <t>54,76; 133,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,31; 95,4</t>
+          <t>28,28; 93,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,72; 89,37</t>
+          <t>20,33; 92,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>-10,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,3</t>
+          <t>-13,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>-11,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,66</t>
+          <t>-16,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>-9,5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,93</t>
+          <t>-14,47</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 13,27</t>
+          <t>-13,27; -3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,7</t>
+          <t>-10,7; -1,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 15,65</t>
+          <t>-15,33; -6,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 18,01</t>
+          <t>-18,01; -8,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 16,37</t>
+          <t>-16,37; -6,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,74; 21,13</t>
+          <t>-20,57; -12,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 14,48</t>
+          <t>-14,48; -7,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 12,93</t>
+          <t>-12,93; -6,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 18,29</t>
+          <t>-17,71; -11,33</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>-9,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>-6,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>114,25%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>-15,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>119,0%</t>
+          <t>-18,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>-12,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>-10,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121,32%</t>
+          <t>-16,5%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,81; 176,27</t>
+          <t>-14,55; -4,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 141,62</t>
+          <t>-11,67; -1,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,8; 202,31</t>
+          <t>-16,91; -6,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,57; 148,47</t>
+          <t>-20,57; -9,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,52; 137,39</t>
+          <t>-18,82; -8,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,97; 187,66</t>
+          <t>-23,43; -14,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,01; 133,01</t>
+          <t>-16,25; -8,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 117,41</t>
+          <t>-14,65; -7,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,44; 170,79</t>
+          <t>-19,94; -13,11</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>-2,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,97</t>
+          <t>-9,97; 1,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 6,71</t>
+          <t>-6,71; 2,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 9,84</t>
+          <t>-9,88; -1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 17,24</t>
+          <t>-17,24; 5,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 12,73</t>
+          <t>-12,73; 6,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 7,71</t>
+          <t>-5,81; 14,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 11,28</t>
+          <t>-11,28; 0,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 8,71</t>
+          <t>-8,71; 1,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 7,81</t>
+          <t>-6,81; 5,28</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>145,82%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>222,27%</t>
+          <t>-6,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>-7,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>-5,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>-5,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>80,43%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>-2,51%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 1136,95</t>
+          <t>-10,25; 1,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 792,81</t>
+          <t>-6,89; 2,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 1094,58</t>
+          <t>-10,0; -1,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 467,91</t>
+          <t>-18,16; 5,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,87; 415,24</t>
+          <t>-13,24; 7,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 176,66</t>
+          <t>-6,41; 17,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 423,43</t>
+          <t>-11,83; 0,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 351,47</t>
+          <t>-8,96; 1,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 298,65</t>
+          <t>-7,13; 6,04</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 11,83</t>
+          <t>-11,83; 7,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 16,27</t>
+          <t>-16,27; 5,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 7,25</t>
+          <t>-6,92; 10,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 24,5</t>
+          <t>-24,5; 15,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 4,6</t>
+          <t>-4,6; 25,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 6,46</t>
+          <t>-6,45; 22,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 13,93</t>
+          <t>-13,93; 8,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 7,98</t>
+          <t>-7,98; 10,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 5,07</t>
+          <t>-4,9; 10,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>114,12%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-67,32%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-41,36%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,09; 8,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,0; 5,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; 12,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,78; 19,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 35,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,83; —</t>
+          <t>-6,65; 30,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 476,3</t>
+          <t>-14,57; 10,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,9; 430,76</t>
+          <t>-8,31; 12,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 284,58</t>
+          <t>-5,02; 11,85</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,13</t>
+          <t>-12,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>-9,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>-5,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,84</t>
+          <t>-10,84; -3,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,52</t>
+          <t>-7,52; -0,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 8,27</t>
+          <t>-8,11; -2,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 16,28</t>
+          <t>-16,28; -8,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,89</t>
+          <t>-12,89; -4,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 11,33</t>
+          <t>-10,32; 4,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,96; 13,02</t>
+          <t>-13,02; -6,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,17</t>
+          <t>-9,17; -3,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 9,09</t>
+          <t>-8,32; 0,98</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>-7,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>66,77%</t>
+          <t>-5,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>-14,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>-9,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>-5,76%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,64; 168,44</t>
+          <t>-11,82; -3,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,32; 118,12</t>
+          <t>-8,01; -1,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,26; 138,34</t>
+          <t>-8,7; -2,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>50,95; 143,73</t>
+          <t>-18,43; -9,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,75; 112,16</t>
+          <t>-14,76; -4,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,21; 94,44</t>
+          <t>-11,77; 5,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,76; 133,67</t>
+          <t>-14,41; -7,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,28; 93,26</t>
+          <t>-10,2; -3,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,33; 92,76</t>
+          <t>-9,26; 1,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -3,52</t>
+          <t>-13,66; -3,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -1,09</t>
+          <t>-10,92; -1,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -6,06</t>
+          <t>-15,51; -5,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -8,09</t>
+          <t>-18,17; -8,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,37; -6,65</t>
+          <t>-16,8; -6,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -12,39</t>
+          <t>-20,26; -11,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -7,73</t>
+          <t>-14,72; -7,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -6,17</t>
+          <t>-12,8; -6,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,71; -11,33</t>
+          <t>-17,82; -11,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -4,01</t>
+          <t>-14,83; -3,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -1,22</t>
+          <t>-11,9; -1,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -6,92</t>
+          <t>-16,94; -6,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -9,69</t>
+          <t>-20,89; -10,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -8,12</t>
+          <t>-19,07; -7,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,43; -14,74</t>
+          <t>-23,12; -13,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -8,71</t>
+          <t>-16,77; -8,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; -7,11</t>
+          <t>-14,53; -7,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -13,11</t>
+          <t>-19,96; -13,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 1,29</t>
+          <t>-9,84; 1,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 2,24</t>
+          <t>-6,84; 1,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -1,3</t>
+          <t>-9,69; -1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 5,07</t>
+          <t>-16,42; 3,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 6,09</t>
+          <t>-13,53; 5,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 14,17</t>
+          <t>-5,56; 17,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,49</t>
+          <t>-10,58; 0,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 1,33</t>
+          <t>-9,16; 1,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,28</t>
+          <t>-7,09; 5,0</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 1,21</t>
+          <t>-10,11; 1,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 2,34</t>
+          <t>-7,0; 2,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -1,54</t>
+          <t>-9,85; -1,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 5,74</t>
+          <t>-17,36; 4,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 7,16</t>
+          <t>-14,33; 5,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 17,7</t>
+          <t>-5,96; 22,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 0,38</t>
+          <t>-11,06; 0,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 1,43</t>
+          <t>-9,41; 1,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 6,04</t>
+          <t>-7,32; 5,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 7,44</t>
+          <t>-12,76; 7,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 5,48</t>
+          <t>-16,35; 6,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 10,72</t>
+          <t>-6,93; 10,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 15,8</t>
+          <t>-25,58; 18,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 25,44</t>
+          <t>-4,95; 25,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 22,41</t>
+          <t>-4,88; 24,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 8,77</t>
+          <t>-12,97; 8,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 10,39</t>
+          <t>-8,33; 10,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 10,04</t>
+          <t>-4,59; 10,26</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 8,07</t>
+          <t>-13,35; 7,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 5,7</t>
+          <t>-16,8; 5,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 12,25</t>
+          <t>-6,97; 11,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 19,6</t>
+          <t>-27,35; 24,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 35,21</t>
+          <t>-4,95; 33,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 30,97</t>
+          <t>-5,09; 36,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 10,11</t>
+          <t>-13,43; 9,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 12,1</t>
+          <t>-8,47; 12,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 11,85</t>
+          <t>-4,77; 12,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>-10,81; -2,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -0,94</t>
+          <t>-7,23; -0,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -2,0</t>
+          <t>-8,38; -2,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -8,08</t>
+          <t>-16,27; -7,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,89; -4,09</t>
+          <t>-12,54; -3,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 4,62</t>
+          <t>-10,86; 5,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -6,96</t>
+          <t>-13,0; -6,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -3,38</t>
+          <t>-9,02; -3,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 0,98</t>
+          <t>-8,36; 1,35</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>-11,75; -3,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -1,03</t>
+          <t>-7,81; -0,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -2,24</t>
+          <t>-8,93; -2,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -9,63</t>
+          <t>-18,58; -9,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -4,98</t>
+          <t>-14,27; -4,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 5,59</t>
+          <t>-12,52; 6,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -7,89</t>
+          <t>-14,46; -7,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -3,85</t>
+          <t>-10,07; -4,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 1,14</t>
+          <t>-9,33; 1,58</t>
         </is>
       </c>
     </row>
